--- a/jyx2/Assets/Mods/SAMPLE/Configs/商店.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/商店.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Jyx2Configs.Jyx2ConfigShop</t>
   </si>
@@ -108,6 +108,10 @@
       </rPr>
       <t>0</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,1,100|43,1,100|44,1,100|45,1,100|46,1,200|47,1,250</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +546,7 @@
   <dimension ref="A1:AX198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,7 +657,15 @@
       <c r="AX4" s="1"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/商店.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/商店.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Jyx2Configs.Jyx2ConfigShop</t>
   </si>
@@ -39,6 +39,10 @@
     <t>物品（Id，数量，价格）</t>
   </si>
   <si>
+    <t>42,1,200|43,1,200|44,1,200|45,1,200|46,1,400|47,1,450</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>120</t>
     </r>
@@ -49,26 +53,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>,1000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0|</t>
+      <t>,1000,50|</t>
     </r>
     <r>
       <rPr>
@@ -87,31 +72,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>,1000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
+      <t>,1000,80</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>42,1,100|43,1,100|44,1,100|45,1,100|46,1,200|47,1,250</t>
+    <t>110,100,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>171,100,10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +516,7 @@
   <dimension ref="A1:AX198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -661,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -715,7 +685,15 @@
       <c r="AX5" s="1"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -765,7 +743,15 @@
       <c r="AX6" s="1"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/商店.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/商店.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC978B5-222D-4D25-B0E5-0CD742C9F725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17805"/>
+    <workbookView xWindow="6230" yWindow="2470" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -19,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Jyx2Configs.Jyx2ConfigShop</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>ShopItems</t>
   </si>
   <si>
     <t>Trigger</t>
@@ -84,12 +79,32 @@
     <t>171,100,10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>LuaConfigGen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_number,L_number,L_number[]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopItems-Id,Count,Price</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -116,6 +131,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -159,17 +180,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -512,43 +533,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AX199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.25" customWidth="1"/>
+    <col min="2" max="2" width="67.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -583,14 +607,14 @@
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
@@ -626,15 +650,15 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -684,15 +708,15 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -742,12 +766,12 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -800,8 +824,16 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -850,7 +882,7 @@
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -900,7 +932,7 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -950,7 +982,7 @@
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1000,7 +1032,7 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1050,7 +1082,7 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1100,7 +1132,7 @@
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1150,7 +1182,7 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1200,7 +1232,7 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1250,7 +1282,7 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
     </row>
-    <row r="17" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1300,7 +1332,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
     </row>
-    <row r="18" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1350,7 +1382,7 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
     </row>
-    <row r="19" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1400,7 +1432,7 @@
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
     </row>
-    <row r="20" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1450,7 +1482,7 @@
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
     </row>
-    <row r="21" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1500,7 +1532,7 @@
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
     </row>
-    <row r="22" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1550,7 +1582,7 @@
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
     </row>
-    <row r="23" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1600,7 +1632,7 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
     </row>
-    <row r="24" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1650,7 +1682,7 @@
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
     </row>
-    <row r="25" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1700,7 +1732,7 @@
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
     </row>
-    <row r="26" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1750,7 +1782,7 @@
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
     </row>
-    <row r="27" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1800,7 +1832,7 @@
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
     </row>
-    <row r="28" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1850,7 +1882,7 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
     </row>
-    <row r="29" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1900,7 +1932,7 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
-    <row r="30" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1950,7 +1982,7 @@
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
-    <row r="31" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2000,7 +2032,7 @@
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
     </row>
-    <row r="32" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2050,7 +2082,7 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
     </row>
-    <row r="33" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2100,7 +2132,7 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
     </row>
-    <row r="34" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2150,7 +2182,7 @@
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
     </row>
-    <row r="35" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2200,7 +2232,7 @@
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
     </row>
-    <row r="36" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2250,7 +2282,7 @@
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
     </row>
-    <row r="37" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2300,7 +2332,7 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
     </row>
-    <row r="38" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2350,7 +2382,7 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
     </row>
-    <row r="39" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2400,7 +2432,7 @@
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
     </row>
-    <row r="40" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2450,7 +2482,7 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
     </row>
-    <row r="41" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2500,7 +2532,7 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
     </row>
-    <row r="42" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2550,7 +2582,7 @@
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
     </row>
-    <row r="43" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2600,7 +2632,7 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
     </row>
-    <row r="44" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2650,7 +2682,7 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
     </row>
-    <row r="45" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2700,7 +2732,7 @@
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
     </row>
-    <row r="46" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2750,7 +2782,7 @@
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
     </row>
-    <row r="47" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2800,7 +2832,7 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
     </row>
-    <row r="48" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2850,7 +2882,7 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
     </row>
-    <row r="49" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2900,7 +2932,7 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
     </row>
-    <row r="50" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2950,7 +2982,7 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
     </row>
-    <row r="51" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3000,7 +3032,7 @@
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
     </row>
-    <row r="52" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3050,7 +3082,7 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
     </row>
-    <row r="53" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3100,7 +3132,7 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
     </row>
-    <row r="54" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3150,7 +3182,7 @@
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
     </row>
-    <row r="55" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3200,7 +3232,7 @@
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
     </row>
-    <row r="56" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3250,7 +3282,7 @@
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
     </row>
-    <row r="57" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3300,7 +3332,7 @@
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
     </row>
-    <row r="58" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3350,7 +3382,7 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
     </row>
-    <row r="59" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3400,7 +3432,7 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
     </row>
-    <row r="60" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3450,7 +3482,7 @@
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
     </row>
-    <row r="61" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3500,7 +3532,7 @@
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
     </row>
-    <row r="62" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3550,7 +3582,7 @@
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
     </row>
-    <row r="63" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3600,7 +3632,7 @@
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
     </row>
-    <row r="64" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3650,7 +3682,7 @@
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
     </row>
-    <row r="65" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3700,7 +3732,7 @@
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
     </row>
-    <row r="66" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3750,7 +3782,7 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
     </row>
-    <row r="67" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3800,7 +3832,7 @@
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
     </row>
-    <row r="68" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3850,7 +3882,7 @@
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
     </row>
-    <row r="69" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3900,7 +3932,7 @@
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
     </row>
-    <row r="70" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3950,7 +3982,7 @@
       <c r="AW70" s="1"/>
       <c r="AX70" s="1"/>
     </row>
-    <row r="71" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4000,7 +4032,7 @@
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
     </row>
-    <row r="72" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4050,7 +4082,7 @@
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
     </row>
-    <row r="73" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4100,7 +4132,7 @@
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
     </row>
-    <row r="74" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4150,7 +4182,7 @@
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
     </row>
-    <row r="75" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4200,7 +4232,7 @@
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
     </row>
-    <row r="76" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4250,7 +4282,7 @@
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
     </row>
-    <row r="77" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4300,7 +4332,7 @@
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
     </row>
-    <row r="78" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4350,7 +4382,7 @@
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
     </row>
-    <row r="79" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4400,7 +4432,7 @@
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
     </row>
-    <row r="80" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4450,7 +4482,7 @@
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
     </row>
-    <row r="81" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4500,7 +4532,7 @@
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
     </row>
-    <row r="82" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4550,7 +4582,7 @@
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
     </row>
-    <row r="83" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4600,7 +4632,7 @@
       <c r="AW83" s="1"/>
       <c r="AX83" s="1"/>
     </row>
-    <row r="84" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4650,7 +4682,7 @@
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
     </row>
-    <row r="85" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4700,7 +4732,7 @@
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
     </row>
-    <row r="86" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4750,7 +4782,7 @@
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
     </row>
-    <row r="87" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4800,7 +4832,7 @@
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
     </row>
-    <row r="88" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4850,7 +4882,7 @@
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
     </row>
-    <row r="89" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4900,7 +4932,7 @@
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
     </row>
-    <row r="90" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4950,7 +4982,7 @@
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
     </row>
-    <row r="91" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -5000,7 +5032,7 @@
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
     </row>
-    <row r="92" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -5050,7 +5082,7 @@
       <c r="AW92" s="1"/>
       <c r="AX92" s="1"/>
     </row>
-    <row r="93" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -5100,7 +5132,7 @@
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
     </row>
-    <row r="94" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5150,7 +5182,7 @@
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
     </row>
-    <row r="95" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -5200,7 +5232,7 @@
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
     </row>
-    <row r="96" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -5250,7 +5282,7 @@
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
     </row>
-    <row r="97" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -5300,7 +5332,7 @@
       <c r="AW97" s="1"/>
       <c r="AX97" s="1"/>
     </row>
-    <row r="98" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -5350,7 +5382,7 @@
       <c r="AW98" s="1"/>
       <c r="AX98" s="1"/>
     </row>
-    <row r="99" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -5400,7 +5432,7 @@
       <c r="AW99" s="1"/>
       <c r="AX99" s="1"/>
     </row>
-    <row r="100" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -5450,7 +5482,7 @@
       <c r="AW100" s="1"/>
       <c r="AX100" s="1"/>
     </row>
-    <row r="101" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -5500,7 +5532,7 @@
       <c r="AW101" s="1"/>
       <c r="AX101" s="1"/>
     </row>
-    <row r="102" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -5550,7 +5582,7 @@
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
     </row>
-    <row r="103" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -5600,7 +5632,7 @@
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
     </row>
-    <row r="104" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -5650,7 +5682,7 @@
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
     </row>
-    <row r="105" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5700,7 +5732,7 @@
       <c r="AW105" s="1"/>
       <c r="AX105" s="1"/>
     </row>
-    <row r="106" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5750,7 +5782,7 @@
       <c r="AW106" s="1"/>
       <c r="AX106" s="1"/>
     </row>
-    <row r="107" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5800,7 +5832,7 @@
       <c r="AW107" s="1"/>
       <c r="AX107" s="1"/>
     </row>
-    <row r="108" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5850,7 +5882,7 @@
       <c r="AW108" s="1"/>
       <c r="AX108" s="1"/>
     </row>
-    <row r="109" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5900,7 +5932,7 @@
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
     </row>
-    <row r="110" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -5950,7 +5982,7 @@
       <c r="AW110" s="1"/>
       <c r="AX110" s="1"/>
     </row>
-    <row r="111" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -6000,7 +6032,7 @@
       <c r="AW111" s="1"/>
       <c r="AX111" s="1"/>
     </row>
-    <row r="112" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -6050,7 +6082,7 @@
       <c r="AW112" s="1"/>
       <c r="AX112" s="1"/>
     </row>
-    <row r="113" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -6100,7 +6132,7 @@
       <c r="AW113" s="1"/>
       <c r="AX113" s="1"/>
     </row>
-    <row r="114" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -6150,7 +6182,7 @@
       <c r="AW114" s="1"/>
       <c r="AX114" s="1"/>
     </row>
-    <row r="115" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -6200,7 +6232,7 @@
       <c r="AW115" s="1"/>
       <c r="AX115" s="1"/>
     </row>
-    <row r="116" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -6250,7 +6282,7 @@
       <c r="AW116" s="1"/>
       <c r="AX116" s="1"/>
     </row>
-    <row r="117" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -6300,7 +6332,7 @@
       <c r="AW117" s="1"/>
       <c r="AX117" s="1"/>
     </row>
-    <row r="118" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -6350,7 +6382,7 @@
       <c r="AW118" s="1"/>
       <c r="AX118" s="1"/>
     </row>
-    <row r="119" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -6400,7 +6432,7 @@
       <c r="AW119" s="1"/>
       <c r="AX119" s="1"/>
     </row>
-    <row r="120" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -6450,7 +6482,7 @@
       <c r="AW120" s="1"/>
       <c r="AX120" s="1"/>
     </row>
-    <row r="121" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -6500,7 +6532,7 @@
       <c r="AW121" s="1"/>
       <c r="AX121" s="1"/>
     </row>
-    <row r="122" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -6550,7 +6582,7 @@
       <c r="AW122" s="1"/>
       <c r="AX122" s="1"/>
     </row>
-    <row r="123" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -6600,7 +6632,7 @@
       <c r="AW123" s="1"/>
       <c r="AX123" s="1"/>
     </row>
-    <row r="124" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -6650,7 +6682,7 @@
       <c r="AW124" s="1"/>
       <c r="AX124" s="1"/>
     </row>
-    <row r="125" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -6700,7 +6732,7 @@
       <c r="AW125" s="1"/>
       <c r="AX125" s="1"/>
     </row>
-    <row r="126" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -6750,7 +6782,7 @@
       <c r="AW126" s="1"/>
       <c r="AX126" s="1"/>
     </row>
-    <row r="127" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -6800,7 +6832,7 @@
       <c r="AW127" s="1"/>
       <c r="AX127" s="1"/>
     </row>
-    <row r="128" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -6850,7 +6882,7 @@
       <c r="AW128" s="1"/>
       <c r="AX128" s="1"/>
     </row>
-    <row r="129" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -6900,7 +6932,7 @@
       <c r="AW129" s="1"/>
       <c r="AX129" s="1"/>
     </row>
-    <row r="130" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -6950,7 +6982,7 @@
       <c r="AW130" s="1"/>
       <c r="AX130" s="1"/>
     </row>
-    <row r="131" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -7000,7 +7032,7 @@
       <c r="AW131" s="1"/>
       <c r="AX131" s="1"/>
     </row>
-    <row r="132" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -7050,7 +7082,7 @@
       <c r="AW132" s="1"/>
       <c r="AX132" s="1"/>
     </row>
-    <row r="133" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -7100,7 +7132,7 @@
       <c r="AW133" s="1"/>
       <c r="AX133" s="1"/>
     </row>
-    <row r="134" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -7150,7 +7182,7 @@
       <c r="AW134" s="1"/>
       <c r="AX134" s="1"/>
     </row>
-    <row r="135" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -7200,7 +7232,7 @@
       <c r="AW135" s="1"/>
       <c r="AX135" s="1"/>
     </row>
-    <row r="136" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -7250,7 +7282,7 @@
       <c r="AW136" s="1"/>
       <c r="AX136" s="1"/>
     </row>
-    <row r="137" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -7300,7 +7332,7 @@
       <c r="AW137" s="1"/>
       <c r="AX137" s="1"/>
     </row>
-    <row r="138" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -7350,7 +7382,7 @@
       <c r="AW138" s="1"/>
       <c r="AX138" s="1"/>
     </row>
-    <row r="139" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -7400,7 +7432,7 @@
       <c r="AW139" s="1"/>
       <c r="AX139" s="1"/>
     </row>
-    <row r="140" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -7450,7 +7482,7 @@
       <c r="AW140" s="1"/>
       <c r="AX140" s="1"/>
     </row>
-    <row r="141" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -7500,7 +7532,7 @@
       <c r="AW141" s="1"/>
       <c r="AX141" s="1"/>
     </row>
-    <row r="142" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -7550,7 +7582,7 @@
       <c r="AW142" s="1"/>
       <c r="AX142" s="1"/>
     </row>
-    <row r="143" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -7600,7 +7632,7 @@
       <c r="AW143" s="1"/>
       <c r="AX143" s="1"/>
     </row>
-    <row r="144" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -7650,7 +7682,7 @@
       <c r="AW144" s="1"/>
       <c r="AX144" s="1"/>
     </row>
-    <row r="145" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -7700,7 +7732,7 @@
       <c r="AW145" s="1"/>
       <c r="AX145" s="1"/>
     </row>
-    <row r="146" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -7750,7 +7782,7 @@
       <c r="AW146" s="1"/>
       <c r="AX146" s="1"/>
     </row>
-    <row r="147" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -7800,7 +7832,7 @@
       <c r="AW147" s="1"/>
       <c r="AX147" s="1"/>
     </row>
-    <row r="148" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -7850,7 +7882,7 @@
       <c r="AW148" s="1"/>
       <c r="AX148" s="1"/>
     </row>
-    <row r="149" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -7900,7 +7932,7 @@
       <c r="AW149" s="1"/>
       <c r="AX149" s="1"/>
     </row>
-    <row r="150" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -7950,7 +7982,7 @@
       <c r="AW150" s="1"/>
       <c r="AX150" s="1"/>
     </row>
-    <row r="151" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -8000,7 +8032,7 @@
       <c r="AW151" s="1"/>
       <c r="AX151" s="1"/>
     </row>
-    <row r="152" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -8050,7 +8082,7 @@
       <c r="AW152" s="1"/>
       <c r="AX152" s="1"/>
     </row>
-    <row r="153" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -8100,7 +8132,7 @@
       <c r="AW153" s="1"/>
       <c r="AX153" s="1"/>
     </row>
-    <row r="154" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -8150,7 +8182,7 @@
       <c r="AW154" s="1"/>
       <c r="AX154" s="1"/>
     </row>
-    <row r="155" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -8200,7 +8232,7 @@
       <c r="AW155" s="1"/>
       <c r="AX155" s="1"/>
     </row>
-    <row r="156" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -8250,7 +8282,7 @@
       <c r="AW156" s="1"/>
       <c r="AX156" s="1"/>
     </row>
-    <row r="157" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -8300,7 +8332,7 @@
       <c r="AW157" s="1"/>
       <c r="AX157" s="1"/>
     </row>
-    <row r="158" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -8350,7 +8382,7 @@
       <c r="AW158" s="1"/>
       <c r="AX158" s="1"/>
     </row>
-    <row r="159" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -8400,7 +8432,7 @@
       <c r="AW159" s="1"/>
       <c r="AX159" s="1"/>
     </row>
-    <row r="160" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -8450,7 +8482,7 @@
       <c r="AW160" s="1"/>
       <c r="AX160" s="1"/>
     </row>
-    <row r="161" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -8500,7 +8532,7 @@
       <c r="AW161" s="1"/>
       <c r="AX161" s="1"/>
     </row>
-    <row r="162" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -8550,7 +8582,7 @@
       <c r="AW162" s="1"/>
       <c r="AX162" s="1"/>
     </row>
-    <row r="163" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -8600,7 +8632,7 @@
       <c r="AW163" s="1"/>
       <c r="AX163" s="1"/>
     </row>
-    <row r="164" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -8650,7 +8682,7 @@
       <c r="AW164" s="1"/>
       <c r="AX164" s="1"/>
     </row>
-    <row r="165" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -8700,7 +8732,7 @@
       <c r="AW165" s="1"/>
       <c r="AX165" s="1"/>
     </row>
-    <row r="166" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -8750,7 +8782,7 @@
       <c r="AW166" s="1"/>
       <c r="AX166" s="1"/>
     </row>
-    <row r="167" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -8800,7 +8832,7 @@
       <c r="AW167" s="1"/>
       <c r="AX167" s="1"/>
     </row>
-    <row r="168" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -8850,7 +8882,7 @@
       <c r="AW168" s="1"/>
       <c r="AX168" s="1"/>
     </row>
-    <row r="169" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -8900,7 +8932,7 @@
       <c r="AW169" s="1"/>
       <c r="AX169" s="1"/>
     </row>
-    <row r="170" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -8950,7 +8982,7 @@
       <c r="AW170" s="1"/>
       <c r="AX170" s="1"/>
     </row>
-    <row r="171" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -9000,7 +9032,7 @@
       <c r="AW171" s="1"/>
       <c r="AX171" s="1"/>
     </row>
-    <row r="172" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -9050,7 +9082,7 @@
       <c r="AW172" s="1"/>
       <c r="AX172" s="1"/>
     </row>
-    <row r="173" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -9100,7 +9132,7 @@
       <c r="AW173" s="1"/>
       <c r="AX173" s="1"/>
     </row>
-    <row r="174" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -9150,7 +9182,7 @@
       <c r="AW174" s="1"/>
       <c r="AX174" s="1"/>
     </row>
-    <row r="175" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -9200,7 +9232,7 @@
       <c r="AW175" s="1"/>
       <c r="AX175" s="1"/>
     </row>
-    <row r="176" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -9250,7 +9282,7 @@
       <c r="AW176" s="1"/>
       <c r="AX176" s="1"/>
     </row>
-    <row r="177" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -9300,7 +9332,7 @@
       <c r="AW177" s="1"/>
       <c r="AX177" s="1"/>
     </row>
-    <row r="178" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -9350,7 +9382,7 @@
       <c r="AW178" s="1"/>
       <c r="AX178" s="1"/>
     </row>
-    <row r="179" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -9400,7 +9432,7 @@
       <c r="AW179" s="1"/>
       <c r="AX179" s="1"/>
     </row>
-    <row r="180" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -9450,7 +9482,7 @@
       <c r="AW180" s="1"/>
       <c r="AX180" s="1"/>
     </row>
-    <row r="181" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -9500,7 +9532,7 @@
       <c r="AW181" s="1"/>
       <c r="AX181" s="1"/>
     </row>
-    <row r="182" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -9550,7 +9582,7 @@
       <c r="AW182" s="1"/>
       <c r="AX182" s="1"/>
     </row>
-    <row r="183" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -9600,7 +9632,7 @@
       <c r="AW183" s="1"/>
       <c r="AX183" s="1"/>
     </row>
-    <row r="184" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -9650,7 +9682,7 @@
       <c r="AW184" s="1"/>
       <c r="AX184" s="1"/>
     </row>
-    <row r="185" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -9700,7 +9732,7 @@
       <c r="AW185" s="1"/>
       <c r="AX185" s="1"/>
     </row>
-    <row r="186" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -9750,7 +9782,7 @@
       <c r="AW186" s="1"/>
       <c r="AX186" s="1"/>
     </row>
-    <row r="187" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -9800,7 +9832,7 @@
       <c r="AW187" s="1"/>
       <c r="AX187" s="1"/>
     </row>
-    <row r="188" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -9850,7 +9882,7 @@
       <c r="AW188" s="1"/>
       <c r="AX188" s="1"/>
     </row>
-    <row r="189" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -9900,7 +9932,7 @@
       <c r="AW189" s="1"/>
       <c r="AX189" s="1"/>
     </row>
-    <row r="190" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -9950,7 +9982,7 @@
       <c r="AW190" s="1"/>
       <c r="AX190" s="1"/>
     </row>
-    <row r="191" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -10000,7 +10032,7 @@
       <c r="AW191" s="1"/>
       <c r="AX191" s="1"/>
     </row>
-    <row r="192" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -10050,7 +10082,7 @@
       <c r="AW192" s="1"/>
       <c r="AX192" s="1"/>
     </row>
-    <row r="193" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -10100,7 +10132,7 @@
       <c r="AW193" s="1"/>
       <c r="AX193" s="1"/>
     </row>
-    <row r="194" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -10150,7 +10182,7 @@
       <c r="AW194" s="1"/>
       <c r="AX194" s="1"/>
     </row>
-    <row r="195" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -10200,7 +10232,7 @@
       <c r="AW195" s="1"/>
       <c r="AX195" s="1"/>
     </row>
-    <row r="196" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -10250,7 +10282,7 @@
       <c r="AW196" s="1"/>
       <c r="AX196" s="1"/>
     </row>
-    <row r="197" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -10300,7 +10332,7 @@
       <c r="AW197" s="1"/>
       <c r="AX197" s="1"/>
     </row>
-    <row r="198" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -10350,6 +10382,9 @@
       <c r="AW198" s="1"/>
       <c r="AX198" s="1"/>
     </row>
+    <row r="199" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C199" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
